--- a/server/nest/benchmarks.xlsx
+++ b/server/nest/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Code\hype\BENCHMARKS\server\nest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308C0DEC-E751-4411-B633-EBEA74561DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E7C1C1-E7D1-4F91-8FC2-692D92E0A60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work with Database" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>Endpoint</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Prisma экранирует запросы</t>
   </si>
   <si>
-    <t>Works with self-signed SSL-certificate</t>
-  </si>
-  <si>
     <t>GET /posts/</t>
   </si>
   <si>
@@ -149,18 +146,12 @@
     <t>autocannon -c 100 -d 30 https://localhost:3001/posts/:id --insecure</t>
   </si>
   <si>
-    <t>autocannon -c 100 -d 30 -m POST -H "Content-Type: application/json" -b '{"title":"New Post","text":"New Text"}' https://localhost:3001/posts --insecure</t>
-  </si>
-  <si>
     <t>curl -k -X POST https://localhost:3001/posts -H "Content-Type: application/json" -d '{"title":"a","text":"b"}'</t>
   </si>
   <si>
     <t>curl -k -X POST https://localhost:3001/posts -H "Content-Type: application/json" -d '{"title":"","text":"test"}'</t>
   </si>
   <si>
-    <t>curl http://localhost:3001/, curl -k https://localhost:3001/</t>
-  </si>
-  <si>
     <t>curl -k -X POST https://localhost:3001/posts -H "Content-Type: application/json" -d '{"title":"Title","text":"\' OR 1=1 --"}'</t>
   </si>
   <si>
@@ -185,16 +176,25 @@
     <t>429 (too many requests) on 101 request</t>
   </si>
   <si>
-    <t>curl: (52) Empty reply from server; hello world</t>
-  </si>
-  <si>
     <t>Request (cmd)</t>
   </si>
   <si>
     <t>[{"type":"field","msg":"Enter the article title","path":"title","location":"body"},{"type":"field","msg":"Enter the article title","path":"title","location":"body"},{"type":"field","msg":"Enter the article text","path":"text","location":"body"},{"type":"field","msg":"Enter the article text","path":"text","location":"body"}]</t>
   </si>
   <si>
-    <t>HTTP/HTTPS (encryption)</t>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Expected: validation error</t>
+  </si>
+  <si>
+    <t>autocannon -c 1000 -d 30 https://localhost:3001/posts --insecure</t>
+  </si>
+  <si>
+    <t>autocannon -c 1000 -d 30 https://localhost:3001/posts/:id --insecure</t>
   </si>
 </sst>
 </file>
@@ -548,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,30 +563,31 @@
     <col min="5" max="7" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
@@ -595,390 +596,720 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3">
         <v>50</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="e">
+      <c r="C2" s="3">
+        <v>913.6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>448.3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>148.13</v>
+      </c>
+      <c r="F2" s="3">
+        <v>229.11</v>
+      </c>
+      <c r="G2" s="3">
+        <v>154.66</v>
+      </c>
+      <c r="H2" s="3">
         <f>AVERAGE(C2:G2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I2" s="3" t="e">
+        <v>378.7600000000001</v>
+      </c>
+      <c r="I2" s="3">
         <f>STDEV(C2:G2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>322.75988234289576</v>
+      </c>
+      <c r="J2" s="3">
+        <f>MIN(C2:G2)</f>
+        <v>148.13</v>
+      </c>
+      <c r="K2">
+        <f>MAX(C2:G2)</f>
+        <v>913.6</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>738.73</v>
+      </c>
+      <c r="D3" s="3">
+        <v>388.1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>152.61000000000001</v>
+      </c>
+      <c r="F3" s="3">
+        <v>156.27000000000001</v>
+      </c>
+      <c r="G3" s="3">
+        <v>782.13</v>
+      </c>
+      <c r="H3" s="3">
+        <f>AVERAGE(C3:G3)</f>
+        <v>443.56800000000004</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I19" si="0">STDEV(C3:G3)</f>
+        <v>304.96648655221105</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J19" si="1">MIN(C3:G3)</f>
+        <v>152.61000000000001</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K19" si="2">MAX(C3:G3)</f>
+        <v>782.13</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>425.49</v>
+      </c>
+      <c r="D4" s="3">
+        <v>226.29</v>
+      </c>
+      <c r="E4" s="3">
+        <v>219.7</v>
+      </c>
+      <c r="F4" s="3">
+        <v>175.28</v>
+      </c>
+      <c r="G4" s="3">
+        <v>222.68</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H19" si="3">AVERAGE(C4:G4)</f>
+        <v>253.88800000000001</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>98.146411396443767</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="1"/>
+        <v>175.28</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>425.49</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>446.82</v>
+      </c>
+      <c r="D5" s="3">
+        <v>281.7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>220.15</v>
+      </c>
+      <c r="F5" s="3">
+        <v>120.66</v>
+      </c>
+      <c r="G5" s="3">
+        <v>116.29</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="3"/>
+        <v>237.12399999999997</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>136.39306041731015</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>116.29</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>446.82</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="e">
-        <f>AVERAGE(C3:G3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="3" t="e">
-        <f t="shared" ref="I3:I19" si="0">STDEV(C3:G3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="e">
-        <f t="shared" ref="H3:H19" si="1">AVERAGE(C4:G4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="3" t="e">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>601.65</v>
+      </c>
+      <c r="D6" s="3">
+        <v>408.81</v>
+      </c>
+      <c r="E6" s="3">
+        <v>389.74</v>
+      </c>
+      <c r="F6" s="3">
+        <v>692.32</v>
+      </c>
+      <c r="G6" s="3">
+        <v>131.59</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="3"/>
+        <v>444.822</v>
+      </c>
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="e">
+        <v>216.96512293453989</v>
+      </c>
+      <c r="J6" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="3" t="e">
+        <v>131.59</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>692.32</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>474.82</v>
+      </c>
+      <c r="D7" s="3">
+        <v>195.34</v>
+      </c>
+      <c r="E7" s="3">
+        <v>130.32</v>
+      </c>
+      <c r="F7" s="3">
+        <v>107.72</v>
+      </c>
+      <c r="G7" s="3">
+        <v>169.56</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="3"/>
+        <v>215.55199999999999</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="e">
+        <v>148.85892556376999</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>107.72</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>474.82</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3">
         <v>500</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="e">
+      <c r="C8" s="3">
+        <v>675.75</v>
+      </c>
+      <c r="D8" s="3">
+        <v>348.35</v>
+      </c>
+      <c r="E8" s="3">
+        <v>390.29</v>
+      </c>
+      <c r="F8" s="3">
+        <v>356.4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>355.19</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="3"/>
+        <v>425.19600000000003</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>141.00955031486333</v>
+      </c>
+      <c r="J8" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="3" t="e">
+        <v>348.35</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>675.75</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
+        <v>525.73</v>
+      </c>
+      <c r="D9" s="3">
+        <v>688.68</v>
+      </c>
+      <c r="E9" s="3">
+        <v>346.87</v>
+      </c>
+      <c r="F9" s="3">
+        <v>239.49</v>
+      </c>
+      <c r="G9" s="3">
+        <v>172.54</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="3"/>
+        <v>394.66199999999992</v>
+      </c>
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+        <v>211.73451105098582</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>172.54</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>688.68</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>789.9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>175.34</v>
+      </c>
+      <c r="E10" s="3">
+        <v>206.89</v>
+      </c>
+      <c r="F10" s="3">
+        <v>112.48</v>
+      </c>
+      <c r="G10" s="3">
+        <v>104.36</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="3"/>
+        <v>277.79399999999998</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>289.47574402702554</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>104.36</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>789.9</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
+        <v>570.04999999999995</v>
+      </c>
+      <c r="D11" s="3">
+        <v>208.24</v>
+      </c>
+      <c r="E11" s="3">
+        <v>207.86</v>
+      </c>
+      <c r="F11" s="3">
+        <v>225.16</v>
+      </c>
+      <c r="G11" s="3">
+        <v>198.71</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="3"/>
+        <v>282.00400000000002</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>161.30567978220728</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="1"/>
+        <v>198.71</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>570.04999999999995</v>
+      </c>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="e">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
+        <v>431.53</v>
+      </c>
+      <c r="D12" s="3">
+        <v>214.42</v>
+      </c>
+      <c r="E12" s="3">
+        <v>188.02</v>
+      </c>
+      <c r="F12" s="3">
+        <v>669.19</v>
+      </c>
+      <c r="G12" s="3">
+        <v>329.57</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="3"/>
+        <v>366.54599999999994</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>195.06241829219692</v>
+      </c>
+      <c r="J12" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="3" t="e">
+        <v>188.02</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>669.19</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <v>315.14</v>
+      </c>
+      <c r="D13" s="3">
+        <v>99.56</v>
+      </c>
+      <c r="E13" s="3">
+        <v>125.12</v>
+      </c>
+      <c r="F13" s="3">
+        <v>115.42</v>
+      </c>
+      <c r="G13" s="3">
+        <v>130.47999999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="3"/>
+        <v>157.14399999999998</v>
+      </c>
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="e">
+        <v>89.101137366478113</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99.56</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>315.14</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3">
         <v>5000</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="e">
+      <c r="C14" s="3">
+        <v>1052.9000000000001</v>
+      </c>
+      <c r="D14" s="3">
+        <v>891.12</v>
+      </c>
+      <c r="E14" s="3">
+        <v>507.89</v>
+      </c>
+      <c r="F14" s="3">
+        <v>423.38</v>
+      </c>
+      <c r="G14" s="3">
+        <v>410.46</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="3"/>
+        <v>657.15</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>295.44159321260116</v>
+      </c>
+      <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="3" t="e">
+        <v>410.46</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>1052.9000000000001</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
+        <v>519.1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>526.89</v>
+      </c>
+      <c r="E15" s="3">
+        <v>393.79</v>
+      </c>
+      <c r="F15" s="3">
+        <v>405.48</v>
+      </c>
+      <c r="G15" s="3">
+        <v>372.3</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="3"/>
+        <v>443.512</v>
+      </c>
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+        <v>73.578692364026523</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="1"/>
+        <v>372.3</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>526.89</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
+        <v>794.48</v>
+      </c>
+      <c r="D16" s="3">
+        <v>211.41</v>
+      </c>
+      <c r="E16" s="3">
+        <v>191.92</v>
+      </c>
+      <c r="F16" s="3">
+        <v>191.9</v>
+      </c>
+      <c r="G16" s="3">
+        <v>108.62</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="3"/>
+        <v>299.666</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>279.44198929294794</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="1"/>
+        <v>108.62</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>794.48</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
+        <v>542.84</v>
+      </c>
+      <c r="D17" s="3">
+        <v>207.18</v>
+      </c>
+      <c r="E17" s="3">
+        <v>222.84</v>
+      </c>
+      <c r="F17" s="3">
+        <v>203.13</v>
+      </c>
+      <c r="G17" s="3">
+        <v>221.27</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="3"/>
+        <v>279.452</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>147.48863674873402</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="1"/>
+        <v>203.13</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>542.84</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="e">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
+        <v>375.15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>204.62</v>
+      </c>
+      <c r="E18" s="3">
+        <v>237.71</v>
+      </c>
+      <c r="F18" s="3">
+        <v>412.18</v>
+      </c>
+      <c r="G18" s="3">
+        <v>245.79</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="3"/>
+        <v>295.09000000000003</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>92.232650129983782</v>
+      </c>
+      <c r="J18" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="3" t="e">
+        <v>204.62</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>412.18</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
+        <v>440.81</v>
+      </c>
+      <c r="D19" s="3">
+        <v>148.76</v>
+      </c>
+      <c r="E19" s="3">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="F19" s="3">
+        <v>91.89</v>
+      </c>
+      <c r="G19" s="3">
+        <v>92.62</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="3"/>
+        <v>183.55599999999998</v>
+      </c>
+      <c r="I19" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="e">
+        <v>146.33087039309237</v>
+      </c>
+      <c r="J19" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="3" t="s">
+        <v>91.89</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>440.81</v>
+      </c>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L20" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J20" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -989,36 +1320,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019A5573-0988-4944-BD07-0E6BAB3BC568}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="127.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="127.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1027,235 +1357,135 @@
         <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>17701</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>5.16</v>
+      </c>
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>12208</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>7.7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>17785</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>37</v>
+      </c>
+      <c r="G4">
+        <v>85</v>
+      </c>
+      <c r="H4">
+        <v>56.12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>17735</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>1000</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>500</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>500</v>
-      </c>
-      <c r="C17">
-        <v>1000</v>
-      </c>
-      <c r="D17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <v>5000</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27">
-        <v>5000</v>
-      </c>
-      <c r="C27">
-        <v>1000</v>
-      </c>
-      <c r="D27">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>22</v>
+      <c r="G5">
+        <v>147</v>
+      </c>
+      <c r="H5">
+        <v>59.8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1266,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5229BCE1-F3D2-4DA6-99A6-0EFD9C88B9FB}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1299,80 +1529,99 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>84.2</v>
+      </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>89.8</v>
+      </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>254</v>
+      </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
